--- a/logs/2024/The Rise of China´s industrial policy (1978 to 2020) - Barry Naughton.xlsx
+++ b/logs/2024/The Rise of China´s industrial policy (1978 to 2020) - Barry Naughton.xlsx
@@ -430,7 +430,7 @@
         <v>45329</v>
       </c>
       <c r="B1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45330</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45331</v>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45334</v>
       </c>
       <c r="B4" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45335</v>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45339</v>
       </c>
       <c r="B6" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45340</v>
       </c>
       <c r="B7" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
